--- a/Pp_roGFP2_Data_evaluation.xlsx
+++ b/Pp_roGFP2_Data_evaluation.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Orp1 I" sheetId="1" state="visible" r:id="rId2"/>
@@ -15,6 +15,7 @@
     <sheet name="roiL II" sheetId="5" state="visible" r:id="rId6"/>
     <sheet name="roiL III" sheetId="6" state="visible" r:id="rId7"/>
     <sheet name="RatiosLines" sheetId="7" state="visible" r:id="rId8"/>
+    <sheet name="Radiant efficiency" sheetId="8" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2776" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2843" uniqueCount="120">
   <si>
     <t xml:space="preserve">Image Number</t>
   </si>
@@ -364,9 +365,6 @@
     <t xml:space="preserve">04/20/2021 15:46:58</t>
   </si>
   <si>
-    <t xml:space="preserve">Sensor</t>
-  </si>
-  <si>
     <t xml:space="preserve">Line</t>
   </si>
   <si>
@@ -378,6 +376,54 @@
   <si>
     <t xml:space="preserve">secr. Grx1-roGFP2iL</t>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Avg Radiant Efficiency  at </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF006100"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">420 nm</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">420 nm, Stdev Radiant Efficiency</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Avg Radiant Efficiency  at </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF9C5700"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">480 nm</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">480 nm, Stdev Radiant Efficiency</t>
+  </si>
 </sst>
 </file>
 
@@ -388,7 +434,7 @@
     <numFmt numFmtId="165" formatCode="0.00E+00"/>
     <numFmt numFmtId="166" formatCode="[$-407]MMM\ YY"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="11">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -446,6 +492,18 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="8">
@@ -574,7 +632,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -608,6 +666,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="7" borderId="2" xfId="25" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -697,7 +759,7 @@
   <dimension ref="A1:AN27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D1" activeCellId="0" sqref="D1"/>
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3182,7 +3244,7 @@
   <dimension ref="A1:AM21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AK9" activeCellId="0" sqref="AK9"/>
+      <selection pane="topLeft" activeCell="E19" activeCellId="0" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5072,7 +5134,7 @@
   <dimension ref="A1:AM19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AK8" activeCellId="0" sqref="AK8"/>
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6791,7 +6853,7 @@
   <dimension ref="A1:AM19"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AK8" activeCellId="0" sqref="AK8"/>
+      <selection pane="topLeft" activeCell="E18" activeCellId="0" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -8510,7 +8572,7 @@
   <dimension ref="A1:AM27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AK9" activeCellId="0" sqref="AK9"/>
+      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -10913,7 +10975,7 @@
   <dimension ref="A1:AM27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="AL10" activeCellId="0" sqref="AL10"/>
+      <selection pane="topLeft" activeCell="E25" activeCellId="0" sqref="E25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -13315,36 +13377,30 @@
   </sheetPr>
   <dimension ref="A1:D62"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A22" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A33" activeCellId="0" sqref="A33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G54" activeCellId="0" sqref="G54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="27.23"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.67"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="19.72"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.56"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="10.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="2" style="0" width="10.67"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0" t="s">
         <v>112</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="C1" s="5" t="s">
         <v>113</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>114</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>69</v>
@@ -13356,10 +13412,7 @@
         <v>0.215331168506553</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="7" t="s">
-        <v>115</v>
-      </c>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="1" t="s">
         <v>69</v>
       </c>
@@ -13370,10 +13423,7 @@
         <v>0.172209424581993</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="7" t="s">
-        <v>115</v>
-      </c>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="1" t="s">
         <v>69</v>
       </c>
@@ -13384,10 +13434,7 @@
         <v>0.204769854918169</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="7" t="s">
-        <v>115</v>
-      </c>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="1" t="s">
         <v>69</v>
       </c>
@@ -13398,10 +13445,7 @@
         <v>0.235203636667539</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="7" t="s">
-        <v>115</v>
-      </c>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="1" t="s">
         <v>69</v>
       </c>
@@ -13412,10 +13456,7 @@
         <v>0.215698043024713</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
-        <v>115</v>
-      </c>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B7" s="1" t="s">
         <v>69</v>
       </c>
@@ -13426,10 +13467,7 @@
         <v>0.218591290885499</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
-        <v>115</v>
-      </c>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="1" t="s">
         <v>69</v>
       </c>
@@ -13440,10 +13478,7 @@
         <v>0.201639463344183</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>115</v>
-      </c>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="1" t="s">
         <v>57</v>
       </c>
@@ -13454,10 +13489,7 @@
         <v>0.233019798273246</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
-        <v>115</v>
-      </c>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B10" s="1" t="s">
         <v>57</v>
       </c>
@@ -13468,10 +13500,7 @@
         <v>0.206449355764002</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
-        <v>115</v>
-      </c>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="1" t="s">
         <v>57</v>
       </c>
@@ -13482,10 +13511,7 @@
         <v>0.239612471226418</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="7" t="s">
-        <v>115</v>
-      </c>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="1" t="s">
         <v>57</v>
       </c>
@@ -13496,10 +13522,7 @@
         <v>0.301823596046844</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="7" t="s">
-        <v>115</v>
-      </c>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="1" t="s">
         <v>57</v>
       </c>
@@ -13510,10 +13533,7 @@
         <v>0.273550974873179</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="7" t="s">
-        <v>115</v>
-      </c>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="1" t="s">
         <v>57</v>
       </c>
@@ -13524,10 +13544,7 @@
         <v>0.243921402477581</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="7" t="s">
-        <v>115</v>
-      </c>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="1" t="s">
         <v>57</v>
       </c>
@@ -13538,10 +13555,7 @@
         <v>0.23406710388392</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="7" t="s">
-        <v>115</v>
-      </c>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="1" t="s">
         <v>57</v>
       </c>
@@ -13552,10 +13566,7 @@
         <v>0.286719198967806</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="7" t="s">
-        <v>115</v>
-      </c>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="1" t="s">
         <v>57</v>
       </c>
@@ -13566,10 +13577,7 @@
         <v>0.255429014793445</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="7" t="s">
-        <v>115</v>
-      </c>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="1" t="s">
         <v>61</v>
       </c>
@@ -13580,10 +13588,7 @@
         <v>0.266648444916021</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="7" t="s">
-        <v>115</v>
-      </c>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B19" s="1" t="s">
         <v>61</v>
       </c>
@@ -13594,10 +13599,7 @@
         <v>0.323428013078344</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="7" t="s">
-        <v>115</v>
-      </c>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B20" s="1" t="s">
         <v>61</v>
       </c>
@@ -13608,10 +13610,7 @@
         <v>0.270074624982958</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="7" t="s">
-        <v>115</v>
-      </c>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B21" s="1" t="s">
         <v>61</v>
       </c>
@@ -13622,10 +13621,7 @@
         <v>0.298331615357608</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="7" t="s">
-        <v>115</v>
-      </c>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="1" t="s">
         <v>61</v>
       </c>
@@ -13636,10 +13632,7 @@
         <v>0.266486234471945</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="7" t="s">
-        <v>115</v>
-      </c>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="1" t="s">
         <v>61</v>
       </c>
@@ -13650,10 +13643,7 @@
         <v>0.142524695216226</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="7" t="s">
-        <v>115</v>
-      </c>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B24" s="1" t="s">
         <v>61</v>
       </c>
@@ -13664,10 +13654,7 @@
         <v>0.295565491514741</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="7" t="s">
-        <v>115</v>
-      </c>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="1" t="s">
         <v>61</v>
       </c>
@@ -13678,10 +13665,7 @@
         <v>0.250972911649403</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="7" t="s">
-        <v>115</v>
-      </c>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="1" t="s">
         <v>65</v>
       </c>
@@ -13692,10 +13676,7 @@
         <v>0.209633574621347</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="7" t="s">
-        <v>115</v>
-      </c>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="1" t="s">
         <v>65</v>
       </c>
@@ -13706,10 +13687,7 @@
         <v>0.296724904623686</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="7" t="s">
-        <v>115</v>
-      </c>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B28" s="1" t="s">
         <v>65</v>
       </c>
@@ -13720,10 +13698,7 @@
         <v>0.313986178054316</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="7" t="s">
-        <v>115</v>
-      </c>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B29" s="1" t="s">
         <v>65</v>
       </c>
@@ -13734,10 +13709,7 @@
         <v>0.305222231835465</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="7" t="s">
-        <v>115</v>
-      </c>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B30" s="1" t="s">
         <v>65</v>
       </c>
@@ -13750,7 +13722,7 @@
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="7" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B31" s="8" t="s">
         <v>69</v>
@@ -13762,10 +13734,7 @@
         <v>0.131799322137228</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="7" t="s">
-        <v>116</v>
-      </c>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="8" t="s">
         <v>69</v>
       </c>
@@ -13776,10 +13745,7 @@
         <v>0.187242884516445</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="7" t="s">
-        <v>116</v>
-      </c>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="8" t="s">
         <v>69</v>
       </c>
@@ -13790,10 +13756,7 @@
         <v>0.181048080424308</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="7" t="s">
-        <v>116</v>
-      </c>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B34" s="8" t="s">
         <v>69</v>
       </c>
@@ -13804,10 +13767,7 @@
         <v>0.136172293853331</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="7" t="s">
-        <v>116</v>
-      </c>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B35" s="8" t="s">
         <v>69</v>
       </c>
@@ -13818,10 +13778,7 @@
         <v>0.142059296762367</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="7" t="s">
-        <v>116</v>
-      </c>
+    <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B36" s="8" t="s">
         <v>69</v>
       </c>
@@ -13832,10 +13789,7 @@
         <v>0.165764236844222</v>
       </c>
     </row>
-    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="7" t="s">
-        <v>116</v>
-      </c>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B37" s="8" t="s">
         <v>69</v>
       </c>
@@ -13846,10 +13800,7 @@
         <v>0.143164260676542</v>
       </c>
     </row>
-    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="7" t="s">
-        <v>116</v>
-      </c>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="8" t="s">
         <v>69</v>
       </c>
@@ -13860,10 +13811,7 @@
         <v>0.133515190772264</v>
       </c>
     </row>
-    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="7" t="s">
-        <v>116</v>
-      </c>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="8" t="s">
         <v>94</v>
       </c>
@@ -13874,10 +13822,7 @@
         <v>0.232953245056028</v>
       </c>
     </row>
-    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="7" t="s">
-        <v>116</v>
-      </c>
+    <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B40" s="8" t="s">
         <v>94</v>
       </c>
@@ -13888,10 +13833,7 @@
         <v>0.207942703055431</v>
       </c>
     </row>
-    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="7" t="s">
-        <v>116</v>
-      </c>
+    <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B41" s="8" t="s">
         <v>94</v>
       </c>
@@ -13902,10 +13844,7 @@
         <v>0.260019351559802</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="7" t="s">
-        <v>116</v>
-      </c>
+    <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B42" s="8" t="s">
         <v>94</v>
       </c>
@@ -13916,10 +13855,7 @@
         <v>0.272325126820703</v>
       </c>
     </row>
-    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="7" t="s">
-        <v>116</v>
-      </c>
+    <row r="43" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B43" s="8" t="s">
         <v>94</v>
       </c>
@@ -13930,10 +13866,7 @@
         <v>0.236163405082882</v>
       </c>
     </row>
-    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="7" t="s">
-        <v>116</v>
-      </c>
+    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B44" s="8" t="s">
         <v>94</v>
       </c>
@@ -13944,10 +13877,7 @@
         <v>0.284689724783227</v>
       </c>
     </row>
-    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="7" t="s">
-        <v>116</v>
-      </c>
+    <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="8" t="s">
         <v>94</v>
       </c>
@@ -13958,10 +13888,7 @@
         <v>0.207557635707776</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="7" t="s">
-        <v>116</v>
-      </c>
+    <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B46" s="8" t="s">
         <v>94</v>
       </c>
@@ -13972,10 +13899,7 @@
         <v>0.237080191043165</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="7" t="s">
-        <v>116</v>
-      </c>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B47" s="8" t="s">
         <v>94</v>
       </c>
@@ -13986,10 +13910,7 @@
         <v>0.224604411084942</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="7" t="s">
-        <v>116</v>
-      </c>
+    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B48" s="8" t="s">
         <v>95</v>
       </c>
@@ -14000,10 +13921,7 @@
         <v>0.282949944938828</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="7" t="s">
-        <v>116</v>
-      </c>
+    <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="8" t="s">
         <v>95</v>
       </c>
@@ -14014,10 +13932,7 @@
         <v>0.305687451516824</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="7" t="s">
-        <v>116</v>
-      </c>
+    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B50" s="8" t="s">
         <v>95</v>
       </c>
@@ -14028,10 +13943,7 @@
         <v>0.248017754633269</v>
       </c>
     </row>
-    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="7" t="s">
-        <v>116</v>
-      </c>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="8" t="s">
         <v>95</v>
       </c>
@@ -14042,10 +13954,7 @@
         <v>0.288298995212794</v>
       </c>
     </row>
-    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="7" t="s">
-        <v>116</v>
-      </c>
+    <row r="52" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="8" t="s">
         <v>95</v>
       </c>
@@ -14056,10 +13965,7 @@
         <v>0.268328820023684</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="7" t="s">
-        <v>116</v>
-      </c>
+    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="8" t="s">
         <v>95</v>
       </c>
@@ -14070,10 +13976,7 @@
         <v>0.25743549986066</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A54" s="7" t="s">
-        <v>116</v>
-      </c>
+    <row r="54" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="8" t="s">
         <v>95</v>
       </c>
@@ -14084,10 +13987,7 @@
         <v>0.263508997061855</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="7" t="s">
-        <v>116</v>
-      </c>
+    <row r="55" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B55" s="8" t="s">
         <v>95</v>
       </c>
@@ -14098,10 +13998,7 @@
         <v>0.289412150853125</v>
       </c>
     </row>
-    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="7" t="s">
-        <v>116</v>
-      </c>
+    <row r="56" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B56" s="8" t="s">
         <v>96</v>
       </c>
@@ -14112,10 +14009,7 @@
         <v>0.260224147569604</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A57" s="7" t="s">
-        <v>116</v>
-      </c>
+    <row r="57" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B57" s="8" t="s">
         <v>96</v>
       </c>
@@ -14126,10 +14020,7 @@
         <v>0.21929125298799</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="7" t="s">
-        <v>116</v>
-      </c>
+    <row r="58" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B58" s="8" t="s">
         <v>96</v>
       </c>
@@ -14140,10 +14031,7 @@
         <v>0.153809146332777</v>
       </c>
     </row>
-    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="7" t="s">
-        <v>116</v>
-      </c>
+    <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B59" s="8" t="s">
         <v>96</v>
       </c>
@@ -14154,10 +14042,7 @@
         <v>0.148249725072691</v>
       </c>
     </row>
-    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="7" t="s">
-        <v>116</v>
-      </c>
+    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B60" s="8" t="s">
         <v>96</v>
       </c>
@@ -14168,10 +14053,7 @@
         <v>0.234440702980155</v>
       </c>
     </row>
-    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="7" t="s">
-        <v>116</v>
-      </c>
+    <row r="61" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="8" t="s">
         <v>96</v>
       </c>
@@ -14182,10 +14064,7 @@
         <v>0.135228196868761</v>
       </c>
     </row>
-    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="7" t="s">
-        <v>116</v>
-      </c>
+    <row r="62" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="8" t="s">
         <v>96</v>
       </c>
@@ -14194,6 +14073,1277 @@
       </c>
       <c r="D62" s="0" t="n">
         <v>0.147843526297428</v>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.7875" bottom="0.7875" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:J62"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="18.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="5.01"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="50.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="29.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="50.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="29.86"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="10.67"/>
+  </cols>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="0" t="s">
+        <v>112</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="0" t="n">
+        <v>56530000000</v>
+      </c>
+      <c r="D2" s="0" t="n">
+        <v>9528000000</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>20140000000</v>
+      </c>
+      <c r="F2" s="0" t="n">
+        <v>2699000000</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C3" s="0" t="n">
+        <v>53550000000</v>
+      </c>
+      <c r="D3" s="0" t="n">
+        <v>7677000000</v>
+      </c>
+      <c r="E3" s="0" t="n">
+        <v>16350000000</v>
+      </c>
+      <c r="F3" s="0" t="n">
+        <v>1560000000</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>61390000000</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>10020000000</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>17460000000</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <v>2159000000</v>
+      </c>
+      <c r="J4" s="9"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C5" s="0" t="n">
+        <v>61290000000</v>
+      </c>
+      <c r="D5" s="0" t="n">
+        <v>10820000000</v>
+      </c>
+      <c r="E5" s="0" t="n">
+        <v>20390000000</v>
+      </c>
+      <c r="F5" s="0" t="n">
+        <v>3169000000</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>71280000000</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>12480000000</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>20900000000</v>
+      </c>
+      <c r="F6" s="0" t="n">
+        <v>2633000000</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="0" t="n">
+        <v>63300000000</v>
+      </c>
+      <c r="D7" s="0" t="n">
+        <v>10400000000</v>
+      </c>
+      <c r="E7" s="0" t="n">
+        <v>20800000000</v>
+      </c>
+      <c r="F7" s="0" t="n">
+        <v>2999000000</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>72290000000</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>12170000000</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>21400000000</v>
+      </c>
+      <c r="F8" s="0" t="n">
+        <v>2375000000</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>80430000000</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>11570000000</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>49090000000</v>
+      </c>
+      <c r="F9" s="0" t="n">
+        <v>8999000000</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="0" t="n">
+        <v>66020000000</v>
+      </c>
+      <c r="D10" s="0" t="n">
+        <v>8589000000</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>39320000000</v>
+      </c>
+      <c r="F10" s="0" t="n">
+        <v>6303000000</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>67550000000</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>12780000000</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>41690000000</v>
+      </c>
+      <c r="F11" s="0" t="n">
+        <v>6130000000</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" s="0" t="n">
+        <v>90700000000</v>
+      </c>
+      <c r="D12" s="0" t="n">
+        <v>17420000000</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>55620000000</v>
+      </c>
+      <c r="F12" s="0" t="n">
+        <v>12950000000</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>75490000000</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>14470000000</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>42380000000</v>
+      </c>
+      <c r="F13" s="0" t="n">
+        <v>8271000000</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="0" t="n">
+        <v>76510000000</v>
+      </c>
+      <c r="D14" s="0" t="n">
+        <v>13370000000</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>49360000000</v>
+      </c>
+      <c r="F14" s="0" t="n">
+        <v>8400000000</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>79200000000</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>13180000000</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>49720000000</v>
+      </c>
+      <c r="F15" s="0" t="n">
+        <v>8184000000</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="0" t="n">
+        <v>91420000000</v>
+      </c>
+      <c r="D16" s="0" t="n">
+        <v>16270000000</v>
+      </c>
+      <c r="E16" s="0" t="n">
+        <v>54760000000</v>
+      </c>
+      <c r="F16" s="0" t="n">
+        <v>12310000000</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="0" t="n">
+        <v>78470000000</v>
+      </c>
+      <c r="D17" s="0" t="n">
+        <v>13380000000</v>
+      </c>
+      <c r="E17" s="0" t="n">
+        <v>42380000000</v>
+      </c>
+      <c r="F17" s="0" t="n">
+        <v>8060000000</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C18" s="0" t="n">
+        <v>74660000000</v>
+      </c>
+      <c r="D18" s="0" t="n">
+        <v>10540000000</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>51810000000</v>
+      </c>
+      <c r="F18" s="0" t="n">
+        <v>11720000000</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="0" t="n">
+        <v>81560000000</v>
+      </c>
+      <c r="D19" s="0" t="n">
+        <v>9892000000</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>51730000000</v>
+      </c>
+      <c r="F19" s="0" t="n">
+        <v>15510000000</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C20" s="0" t="n">
+        <v>76710000000</v>
+      </c>
+      <c r="D20" s="0" t="n">
+        <v>10460000000</v>
+      </c>
+      <c r="E20" s="0" t="n">
+        <v>52590000000</v>
+      </c>
+      <c r="F20" s="0" t="n">
+        <v>12260000000</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" s="0" t="n">
+        <v>74660000000</v>
+      </c>
+      <c r="D21" s="0" t="n">
+        <v>10540000000</v>
+      </c>
+      <c r="E21" s="0" t="n">
+        <v>51810000000</v>
+      </c>
+      <c r="F21" s="0" t="n">
+        <v>11720000000</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="0" t="n">
+        <v>81560000000</v>
+      </c>
+      <c r="D22" s="0" t="n">
+        <v>9892000000</v>
+      </c>
+      <c r="E22" s="0" t="n">
+        <v>51730000000</v>
+      </c>
+      <c r="F22" s="0" t="n">
+        <v>15510000000</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C23" s="0" t="n">
+        <v>76710000000</v>
+      </c>
+      <c r="D23" s="0" t="n">
+        <v>10460000000</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>52590000000</v>
+      </c>
+      <c r="F23" s="0" t="n">
+        <v>12260000000</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B24" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C24" s="0" t="n">
+        <v>85710000000</v>
+      </c>
+      <c r="D24" s="0" t="n">
+        <v>12870000000</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>55660000000</v>
+      </c>
+      <c r="F24" s="0" t="n">
+        <v>14170000000</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="0" t="n">
+        <v>93860000000</v>
+      </c>
+      <c r="D25" s="0" t="n">
+        <v>12790000000</v>
+      </c>
+      <c r="E25" s="0" t="n">
+        <v>56890000000</v>
+      </c>
+      <c r="F25" s="0" t="n">
+        <v>11990000000</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B26" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C26" s="0" t="n">
+        <v>70750000000</v>
+      </c>
+      <c r="D26" s="0" t="n">
+        <v>9607000000</v>
+      </c>
+      <c r="E26" s="0" t="n">
+        <v>33310000000</v>
+      </c>
+      <c r="F26" s="0" t="n">
+        <v>5320000000</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="0" t="n">
+        <v>62700000000</v>
+      </c>
+      <c r="D27" s="0" t="n">
+        <v>10620000000</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>32430000000</v>
+      </c>
+      <c r="F27" s="0" t="n">
+        <v>7901000000</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" s="0" t="n">
+        <v>69990000000</v>
+      </c>
+      <c r="D28" s="0" t="n">
+        <v>12060000000</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>26840000000</v>
+      </c>
+      <c r="F28" s="0" t="n">
+        <v>7045000000</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B29" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C29" s="0" t="n">
+        <v>69260000000</v>
+      </c>
+      <c r="D29" s="0" t="n">
+        <v>12580000000</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>33580000000</v>
+      </c>
+      <c r="F29" s="0" t="n">
+        <v>8237000000</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="0" t="n">
+        <v>69930000000</v>
+      </c>
+      <c r="D30" s="0" t="n">
+        <v>12030000000</v>
+      </c>
+      <c r="E30" s="0" t="n">
+        <v>33180000000</v>
+      </c>
+      <c r="F30" s="0" t="n">
+        <v>7854000000</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="0" t="n">
+        <v>49640000000</v>
+      </c>
+      <c r="D31" s="0" t="n">
+        <v>5414000000</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>17230000000</v>
+      </c>
+      <c r="F31" s="0" t="n">
+        <v>1275000000</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="0" t="n">
+        <v>47560000000</v>
+      </c>
+      <c r="D32" s="0" t="n">
+        <v>5948000000</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>13900000000</v>
+      </c>
+      <c r="F32" s="0" t="n">
+        <v>1937000000</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" s="0" t="n">
+        <v>50500000000</v>
+      </c>
+      <c r="D33" s="0" t="n">
+        <v>5129000000</v>
+      </c>
+      <c r="E33" s="0" t="n">
+        <v>14320000000</v>
+      </c>
+      <c r="F33" s="0" t="n">
+        <v>1876000000</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C34" s="0" t="n">
+        <v>51640000000</v>
+      </c>
+      <c r="D34" s="0" t="n">
+        <v>4606000000</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>14770000000</v>
+      </c>
+      <c r="F34" s="0" t="n">
+        <v>1654000000</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="0" t="n">
+        <v>51730000000</v>
+      </c>
+      <c r="D35" s="0" t="n">
+        <v>4278000000</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>15560000000</v>
+      </c>
+      <c r="F35" s="0" t="n">
+        <v>1631000000</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C36" s="0" t="n">
+        <v>50050000000</v>
+      </c>
+      <c r="D36" s="0" t="n">
+        <v>5956000000</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>14570000000</v>
+      </c>
+      <c r="F36" s="0" t="n">
+        <v>1988000000</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C37" s="0" t="n">
+        <v>51580000000</v>
+      </c>
+      <c r="D37" s="0" t="n">
+        <v>4728000000</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>15690000000</v>
+      </c>
+      <c r="F37" s="0" t="n">
+        <v>1580000000</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C38" s="0" t="n">
+        <v>51560000000</v>
+      </c>
+      <c r="D38" s="0" t="n">
+        <v>4439000000</v>
+      </c>
+      <c r="E38" s="0" t="n">
+        <v>14540000000</v>
+      </c>
+      <c r="F38" s="0" t="n">
+        <v>1643000000</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C39" s="0" t="n">
+        <v>54040000000</v>
+      </c>
+      <c r="D39" s="0" t="n">
+        <v>5501000000</v>
+      </c>
+      <c r="E39" s="0" t="n">
+        <v>21090000000</v>
+      </c>
+      <c r="F39" s="0" t="n">
+        <v>5327000000</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C40" s="0" t="n">
+        <v>50970000000</v>
+      </c>
+      <c r="D40" s="0" t="n">
+        <v>4960000000</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>20550000000</v>
+      </c>
+      <c r="F40" s="0" t="n">
+        <v>4422000000</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C41" s="0" t="n">
+        <v>46490000000</v>
+      </c>
+      <c r="D41" s="0" t="n">
+        <v>4976000000</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>17460000000</v>
+      </c>
+      <c r="F41" s="0" t="n">
+        <v>4606000000</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C42" s="0" t="n">
+        <v>50690000000</v>
+      </c>
+      <c r="D42" s="0" t="n">
+        <v>4913000000</v>
+      </c>
+      <c r="E42" s="0" t="n">
+        <v>18930000000</v>
+      </c>
+      <c r="F42" s="0" t="n">
+        <v>4010000000</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C43" s="0" t="n">
+        <v>50220000000</v>
+      </c>
+      <c r="D43" s="0" t="n">
+        <v>4074000000</v>
+      </c>
+      <c r="E43" s="0" t="n">
+        <v>19100000000</v>
+      </c>
+      <c r="F43" s="0" t="n">
+        <v>3657000000</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C44" s="0" t="n">
+        <v>48900000000</v>
+      </c>
+      <c r="D44" s="0" t="n">
+        <v>4315000000</v>
+      </c>
+      <c r="E44" s="0" t="n">
+        <v>17740000000</v>
+      </c>
+      <c r="F44" s="0" t="n">
+        <v>4339000000</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C45" s="0" t="n">
+        <v>50880000000</v>
+      </c>
+      <c r="D45" s="0" t="n">
+        <v>4897000000</v>
+      </c>
+      <c r="E45" s="0" t="n">
+        <v>19930000000</v>
+      </c>
+      <c r="F45" s="0" t="n">
+        <v>3665000000</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C46" s="0" t="n">
+        <v>51230000000</v>
+      </c>
+      <c r="D46" s="0" t="n">
+        <v>5351000000</v>
+      </c>
+      <c r="E46" s="0" t="n">
+        <v>19250000000</v>
+      </c>
+      <c r="F46" s="0" t="n">
+        <v>4097000000</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="0" t="n">
+        <v>48840000000</v>
+      </c>
+      <c r="D47" s="0" t="n">
+        <v>5026000000</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>19590000000</v>
+      </c>
+      <c r="F47" s="0" t="n">
+        <v>3911000000</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="0" t="n">
+        <v>51480000000</v>
+      </c>
+      <c r="D48" s="0" t="n">
+        <v>6784000000</v>
+      </c>
+      <c r="E48" s="0" t="n">
+        <v>16690000000</v>
+      </c>
+      <c r="F48" s="0" t="n">
+        <v>4179000000</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="0" t="n">
+        <v>56540000000</v>
+      </c>
+      <c r="D49" s="0" t="n">
+        <v>5599000000</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>23340000000</v>
+      </c>
+      <c r="F49" s="0" t="n">
+        <v>6750000000</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50" s="0" t="n">
+        <v>64870000000</v>
+      </c>
+      <c r="D50" s="0" t="n">
+        <v>9010000000</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>18070000000</v>
+      </c>
+      <c r="F50" s="0" t="n">
+        <v>3713000000</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" s="0" t="n">
+        <v>53020000000</v>
+      </c>
+      <c r="D51" s="0" t="n">
+        <v>6694000000</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>16660000000</v>
+      </c>
+      <c r="F51" s="0" t="n">
+        <v>4318000000</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C52" s="0" t="n">
+        <v>58280000000</v>
+      </c>
+      <c r="D52" s="0" t="n">
+        <v>5798000000</v>
+      </c>
+      <c r="E52" s="0" t="n">
+        <v>20750000000</v>
+      </c>
+      <c r="F52" s="0" t="n">
+        <v>5171000000</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C53" s="0" t="n">
+        <v>56510000000</v>
+      </c>
+      <c r="D53" s="0" t="n">
+        <v>4928000000</v>
+      </c>
+      <c r="E53" s="0" t="n">
+        <v>22030000000</v>
+      </c>
+      <c r="F53" s="0" t="n">
+        <v>5336000000</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C54" s="0" t="n">
+        <v>53820000000</v>
+      </c>
+      <c r="D54" s="0" t="n">
+        <v>7309000000</v>
+      </c>
+      <c r="E54" s="0" t="n">
+        <v>18320000000</v>
+      </c>
+      <c r="F54" s="0" t="n">
+        <v>4137000000</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C55" s="0" t="n">
+        <v>65200000000</v>
+      </c>
+      <c r="D55" s="0" t="n">
+        <v>11540000000</v>
+      </c>
+      <c r="E55" s="0" t="n">
+        <v>18460000000</v>
+      </c>
+      <c r="F55" s="0" t="n">
+        <v>4227000000</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C56" s="0" t="n">
+        <v>45280000000</v>
+      </c>
+      <c r="D56" s="0" t="n">
+        <v>6863000000</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>13620000000</v>
+      </c>
+      <c r="F56" s="0" t="n">
+        <v>2881000000</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C57" s="0" t="n">
+        <v>47410000000</v>
+      </c>
+      <c r="D57" s="0" t="n">
+        <v>5812000000</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>13480000000</v>
+      </c>
+      <c r="F57" s="0" t="n">
+        <v>2451000000</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C58" s="0" t="n">
+        <v>58330000000</v>
+      </c>
+      <c r="D58" s="0" t="n">
+        <v>5365000000</v>
+      </c>
+      <c r="E58" s="0" t="n">
+        <v>17570000000</v>
+      </c>
+      <c r="F58" s="0" t="n">
+        <v>2166000000</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59" s="0" t="n">
+        <v>50860000000</v>
+      </c>
+      <c r="D59" s="0" t="n">
+        <v>5542000000</v>
+      </c>
+      <c r="E59" s="0" t="n">
+        <v>15360000000</v>
+      </c>
+      <c r="F59" s="0" t="n">
+        <v>1544000000</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C60" s="0" t="n">
+        <v>46830000000</v>
+      </c>
+      <c r="D60" s="0" t="n">
+        <v>6064000000</v>
+      </c>
+      <c r="E60" s="0" t="n">
+        <v>14020000000</v>
+      </c>
+      <c r="F60" s="0" t="n">
+        <v>2740000000</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C61" s="0" t="n">
+        <v>57750000000</v>
+      </c>
+      <c r="D61" s="0" t="n">
+        <v>5988000000</v>
+      </c>
+      <c r="E61" s="0" t="n">
+        <v>18570000000</v>
+      </c>
+      <c r="F61" s="0" t="n">
+        <v>1612000000</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C62" s="0" t="n">
+        <v>49580000000</v>
+      </c>
+      <c r="D62" s="0" t="n">
+        <v>5811000000</v>
+      </c>
+      <c r="E62" s="0" t="n">
+        <v>15580000000</v>
+      </c>
+      <c r="F62" s="0" t="n">
+        <v>1404000000</v>
       </c>
     </row>
   </sheetData>
